--- a/data-raw/metadata/deer_mill_release_metadata.xlsx
+++ b/data-raw/metadata/deer_mill_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-deer-mill-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-deer-mill-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D67CC-9D5C-6D44-B35D-1549EBE97538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF49FE-8D55-EE44-87CE-39D7C6807345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="500" windowWidth="25300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="760" windowWidth="25300" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>stream</t>
   </si>
   <si>
-    <t>Name of stream where fish releaed</t>
-  </si>
-  <si>
     <t>release_origin</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Type of mark applied to fish during release trial</t>
+  </si>
+  <si>
+    <t>Name of stream where fish released</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:Z980"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="6" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="8" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -28017,13 +28017,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/deer_mill_release_metadata.xlsx
+++ b/data-raw/metadata/deer_mill_release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-deer-mill-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/JPE/jpe-deer-mill-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF49FE-8D55-EE44-87CE-39D7C6807345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB39B0-E93F-6C4D-B351-A84B23E88BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="760" windowWidth="25300" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="500" windowWidth="25300" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -115,30 +115,6 @@
     <t>number_released</t>
   </si>
   <si>
-    <t>recapture_start_date</t>
-  </si>
-  <si>
-    <t>recapture_end_date</t>
-  </si>
-  <si>
-    <t>Date and time when started trapping and looking for recaptures</t>
-  </si>
-  <si>
-    <t>Date and time when stopped trapping and looking for recaptures</t>
-  </si>
-  <si>
-    <t>min_rotations</t>
-  </si>
-  <si>
-    <t>max_rotations</t>
-  </si>
-  <si>
-    <t>Minimum rotations during efficiency trial</t>
-  </si>
-  <si>
-    <t>Maximum rotations during efficiency trial</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -155,6 +131,18 @@
   </si>
   <si>
     <t>Name of stream where fish released</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean fork length of released fish </t>
+  </si>
+  <si>
+    <t>mean_fl_released</t>
+  </si>
+  <si>
+    <t>release_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identifier assigned to each release trial ( stream name, year, release trial ) </t>
   </si>
 </sst>
 </file>
@@ -462,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z980"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -541,10 +529,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -579,10 +567,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -617,34 +605,28 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8">
-        <v>44599.026388888888</v>
-      </c>
-      <c r="M4" s="8">
-        <v>44627.513194444444</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -659,39 +641,35 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8">
+        <v>44599.026388888888</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3">
-        <v>399</v>
-      </c>
-      <c r="M5" s="3">
-        <v>400</v>
+      <c r="M5" s="8">
+        <v>44627.513194444444</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -709,28 +687,38 @@
     </row>
     <row r="6" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3">
+        <v>300</v>
+      </c>
+      <c r="M6" s="3">
+        <v>400</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -745,193 +733,151 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="6" t="s">
-        <v>22</v>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3">
+        <v>10</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8">
-        <v>44600.615972222222</v>
+      <c r="M7" s="3">
+        <v>100</v>
       </c>
-      <c r="M7" s="8">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8">
-        <v>44601.665277777778</v>
-      </c>
-      <c r="M8" s="8">
-        <v>44617.458333333336</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -990,7 +936,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -1018,7 +964,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -1102,7 +1048,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -1130,7 +1076,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -2054,7 +2000,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -2082,7 +2028,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -27981,22 +27927,78 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A981" s="1"/>
+      <c r="B981" s="1"/>
+      <c r="C981" s="1"/>
+      <c r="D981" s="2"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="3"/>
+      <c r="G981" s="3"/>
+      <c r="H981" s="3"/>
+      <c r="I981" s="2"/>
+      <c r="J981" s="3"/>
+      <c r="K981" s="2"/>
+      <c r="L981" s="3"/>
+      <c r="M981" s="3"/>
+      <c r="N981" s="1"/>
+      <c r="O981" s="1"/>
+      <c r="P981" s="1"/>
+      <c r="Q981" s="1"/>
+      <c r="R981" s="1"/>
+      <c r="S981" s="1"/>
+      <c r="T981" s="1"/>
+      <c r="U981" s="1"/>
+      <c r="V981" s="1"/>
+      <c r="W981" s="1"/>
+      <c r="X981" s="1"/>
+      <c r="Y981" s="1"/>
+      <c r="Z981" s="1"/>
+    </row>
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A982" s="1"/>
+      <c r="B982" s="1"/>
+      <c r="C982" s="1"/>
+      <c r="D982" s="2"/>
+      <c r="E982" s="1"/>
+      <c r="F982" s="3"/>
+      <c r="G982" s="3"/>
+      <c r="H982" s="3"/>
+      <c r="I982" s="2"/>
+      <c r="J982" s="3"/>
+      <c r="K982" s="2"/>
+      <c r="L982" s="3"/>
+      <c r="M982" s="3"/>
+      <c r="N982" s="1"/>
+      <c r="O982" s="1"/>
+      <c r="P982" s="1"/>
+      <c r="Q982" s="1"/>
+      <c r="R982" s="1"/>
+      <c r="S982" s="1"/>
+      <c r="T982" s="1"/>
+      <c r="U982" s="1"/>
+      <c r="V982" s="1"/>
+      <c r="W982" s="1"/>
+      <c r="X982" s="1"/>
+      <c r="Y982" s="1"/>
+      <c r="Z982" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C37:C980 C13:C25 C1:C10" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C39:C982 C15:C27 C1:C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E13:E980 E1:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E15:E982 E1:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F13:F980 F1:F10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F15:F982 F1:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H980 H1:H10" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H982 H1:H12" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28017,13 +28019,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
